--- a/_posts/coursera.xlsx
+++ b/_posts/coursera.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MG\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Blog\_posts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E3BA921-6026-49DE-A438-25AC54F99F3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0B0765B-9BB2-4D51-AAFD-D862D4F33DBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{0A384860-609E-413C-8498-E8F11A277F86}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0A384860-609E-413C-8498-E8F11A277F86}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="91">
   <si>
     <t>https://www.coursera.org/learn/server-side-nodejs</t>
   </si>
@@ -286,13 +286,34 @@
   </si>
   <si>
     <t>Motion Planning for Self-Driving Cars</t>
+  </si>
+  <si>
+    <t>Machine Learning Specialization</t>
+  </si>
+  <si>
+    <t>Emily Fox (+1)</t>
+  </si>
+  <si>
+    <t>https://www.coursera.org/specializations/machine-learning</t>
+  </si>
+  <si>
+    <t>Machine Learning Foundations: A Case Study Approach</t>
+  </si>
+  <si>
+    <t>Machine Learning: Regression</t>
+  </si>
+  <si>
+    <t>Machine Learning: Classification</t>
+  </si>
+  <si>
+    <t>Machine Learning: Clustering &amp; Retrieval</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -304,6 +325,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -330,16 +359,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -355,7 +385,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -651,27 +681,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C693DC3E-61B8-4B72-BD02-D680B6E14AF2}">
-  <dimension ref="C10:K76"/>
+  <dimension ref="C10:K81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="L37" sqref="L37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="22.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="10" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>2</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="3" t="s">
         <v>4</v>
       </c>
       <c r="I18" t="s">
@@ -681,36 +711,36 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="3:11" x14ac:dyDescent="0.25">
       <c r="E19" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="3:11" x14ac:dyDescent="0.25">
       <c r="E20" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="21" spans="3:11" x14ac:dyDescent="0.25">
       <c r="E21" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="22" spans="3:11" x14ac:dyDescent="0.25">
       <c r="E22" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="23" spans="3:11" x14ac:dyDescent="0.25">
       <c r="E23" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="24" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>2</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="3" t="s">
         <v>11</v>
       </c>
       <c r="I24" t="s">
@@ -720,31 +750,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="25" spans="3:11" x14ac:dyDescent="0.25">
       <c r="E25" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="26" spans="3:11" x14ac:dyDescent="0.25">
       <c r="E26" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="27" spans="3:11" x14ac:dyDescent="0.25">
       <c r="E27" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="28" spans="3:11" x14ac:dyDescent="0.25">
       <c r="E28" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="29" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>2</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="3" t="s">
         <v>17</v>
       </c>
       <c r="I29" t="s">
@@ -754,36 +784,36 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="30" spans="3:11" x14ac:dyDescent="0.25">
       <c r="E30" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="31" spans="3:11" x14ac:dyDescent="0.25">
       <c r="E31" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="32" spans="3:11" x14ac:dyDescent="0.25">
       <c r="E32" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="33" spans="3:11" x14ac:dyDescent="0.25">
       <c r="E33" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="34" spans="3:11" x14ac:dyDescent="0.25">
       <c r="E34" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="35" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="35" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>2</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="3" t="s">
         <v>24</v>
       </c>
       <c r="I35" t="s">
@@ -793,31 +823,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="36" spans="3:11" x14ac:dyDescent="0.25">
       <c r="E36" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="37" spans="3:11" x14ac:dyDescent="0.25">
       <c r="E37" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="38" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="38" spans="3:11" x14ac:dyDescent="0.25">
       <c r="E38" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="39" spans="3:11" x14ac:dyDescent="0.25">
       <c r="E39" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="40" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="40" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>2</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="3" t="s">
         <v>30</v>
       </c>
       <c r="I40" t="s">
@@ -827,245 +857,276 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="41" spans="3:11" x14ac:dyDescent="0.25">
       <c r="E41" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="42" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="42" spans="3:11" x14ac:dyDescent="0.25">
       <c r="E42" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="43" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="43" spans="3:11" x14ac:dyDescent="0.25">
       <c r="E43" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="44" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="44" spans="3:11" x14ac:dyDescent="0.25">
       <c r="E44" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="45" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="45" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>2</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45" s="3" t="s">
         <v>36</v>
       </c>
       <c r="I45" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="46" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="46" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C46" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D46" s="3" t="s">
         <v>38</v>
       </c>
       <c r="I46" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="47" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="D47" t="s">
+    <row r="47" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="D47" s="3" t="s">
         <v>41</v>
       </c>
       <c r="I47" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="48" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="48" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>43</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D48" s="3" t="s">
         <v>42</v>
       </c>
       <c r="I48" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="49" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="49" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>46</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D49" s="3" t="s">
         <v>45</v>
       </c>
       <c r="I49" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="50" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="50" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>50</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D50" s="3" t="s">
         <v>49</v>
       </c>
       <c r="I50" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="51" spans="3:9" x14ac:dyDescent="0.25">
       <c r="E51" t="s">
         <v>64</v>
       </c>
       <c r="I51" s="2"/>
     </row>
-    <row r="52" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="52" spans="3:9" x14ac:dyDescent="0.25">
       <c r="E52" t="s">
         <v>65</v>
       </c>
       <c r="I52" s="2"/>
     </row>
-    <row r="53" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="53" spans="3:9" x14ac:dyDescent="0.25">
       <c r="E53" t="s">
         <v>66</v>
       </c>
       <c r="I53" s="2"/>
     </row>
-    <row r="54" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="54" spans="3:9" x14ac:dyDescent="0.25">
       <c r="E54" t="s">
         <v>67</v>
       </c>
       <c r="I54" s="2"/>
     </row>
-    <row r="55" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="55" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>68</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D55" s="3" t="s">
         <v>57</v>
       </c>
       <c r="I55" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="56" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="56" spans="3:9" x14ac:dyDescent="0.25">
       <c r="E56" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="57" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="57" spans="3:9" x14ac:dyDescent="0.25">
       <c r="E57" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="58" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="58" spans="3:9" x14ac:dyDescent="0.25">
       <c r="E58" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="59" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="59" spans="3:9" x14ac:dyDescent="0.25">
       <c r="E59" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="60" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="60" spans="3:9" x14ac:dyDescent="0.25">
       <c r="E60" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="61" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="61" spans="3:9" x14ac:dyDescent="0.25">
       <c r="E61" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="62" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="62" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>60</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D62" s="3" t="s">
         <v>59</v>
       </c>
       <c r="I62" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="63" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="63" spans="3:9" x14ac:dyDescent="0.25">
       <c r="E63" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="64" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="64" spans="3:9" x14ac:dyDescent="0.25">
       <c r="E64" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="65" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="65" spans="3:9" x14ac:dyDescent="0.25">
       <c r="E65" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="66" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="66" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>71</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D66" s="3" t="s">
         <v>70</v>
       </c>
       <c r="I66" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="67" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="67" spans="3:9" x14ac:dyDescent="0.25">
       <c r="E67" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="68" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="68" spans="3:9" x14ac:dyDescent="0.25">
       <c r="E68" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="69" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="69" spans="3:9" x14ac:dyDescent="0.25">
       <c r="E69" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="70" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="70" spans="3:9" x14ac:dyDescent="0.25">
       <c r="E70" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="71" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="71" spans="3:9" x14ac:dyDescent="0.25">
       <c r="E71" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="72" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="72" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>79</v>
       </c>
-      <c r="D72" t="s">
+      <c r="D72" s="3" t="s">
         <v>77</v>
       </c>
       <c r="I72" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="73" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="73" spans="3:9" x14ac:dyDescent="0.25">
       <c r="E73" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="74" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="74" spans="3:9" x14ac:dyDescent="0.25">
       <c r="E74" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="75" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="75" spans="3:9" x14ac:dyDescent="0.25">
       <c r="E75" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="76" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="76" spans="3:9" x14ac:dyDescent="0.25">
       <c r="E76" t="s">
         <v>83</v>
+      </c>
+    </row>
+    <row r="77" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C77" t="s">
+        <v>85</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="I77" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="78" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="E78" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="79" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="E79" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="80" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="E80" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="81" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E81" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1079,7 +1140,9 @@
     <hyperlink ref="I62" r:id="rId7" xr:uid="{490009F6-4BAA-4781-827E-C993422FB243}"/>
     <hyperlink ref="I66" r:id="rId8" xr:uid="{290577C1-86D3-41D6-9CE4-15626CE780EE}"/>
     <hyperlink ref="I72" r:id="rId9" xr:uid="{3D15CD60-24AD-446A-ADDC-4B5274038CC5}"/>
+    <hyperlink ref="I77" r:id="rId10" xr:uid="{C5590451-0B94-4E99-B92B-9A1A7CE8865C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId11"/>
 </worksheet>
 </file>